--- a/biology/Botanique/Centaurea_diffusa/Centaurea_diffusa.xlsx
+++ b/biology/Botanique/Centaurea_diffusa/Centaurea_diffusa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Centaurea diffusa, qui a pour nom commun Centaurée diffuse[2], est une espèce de plante à fleurs de la famille des Asteraceae et du genre Centaurea.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Centaurea diffusa, qui a pour nom commun Centaurée diffuse, est une espèce de plante à fleurs de la famille des Asteraceae et du genre Centaurea.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La centaurée diffuse est une plante annuelle ou bisannuelle, atteignant généralement entre 10 et 60 cm de hauteur. Elle a une tige très ramifiée et une grande racine pivotante, ainsi qu'une rosette basale de feuilles avec des feuilles plus petites alternant sur les tiges dressées. Les fleurs sont généralement blanches ou roses et poussent sur des têtes en forme d'urne portées à l'extrémité des nombreuses branches. La centaurée diffuse prend souvent une forme de rosette courte pendant un an, atteint sa taille maximale, puis croît et fleurit rapidement la deuxième année. Une seule plante peut produire environ 18 000 graines.
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Centaurea diffusa est originaire d'Asie Mineure (Turquie, Syrie), des Balkans (Bulgarie, Grèce, Roumanie), d'Ukraine et du sud de la Russie.
 </t>
@@ -573,9 +589,11 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa fleur est butinée par l'abeille Nomioides minutissimus[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa fleur est butinée par l'abeille Nomioides minutissimus.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Parasitologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La fleur a pour parasites Terellia virens (sv), Terellia zerovae (sv), Chaetorellia acrolophi, Metzneria paucipunctella (en), Larinus minutus (en), Isocolus centaureae (nl), Urophora affinis. Le fruit a pour parasites Oxycarenus pallens, Urophora quadrifasciata. La feuille a pour parasite Tingis grisea, Jordanita budensis (de), Aceria centaureae, Jordanita globulariae, Puccinia carthami (sv), Puccinia jaceae, Aceria thessalonicae. La racine a pour parasites Pelochrista medullana (en), Sphenoptera jugoslavica (sv), Cyphocleonus achates (en). Le collet a pour parasites Ceratapion gibbirostre (pt), Ceratapion orientale, Cleonis pigra (de), Ceratapion penetrans (pt). La tige a pour parasite Phanacis centaureae (sv)[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fleur a pour parasites Terellia virens (sv), Terellia zerovae (sv), Chaetorellia acrolophi, Metzneria paucipunctella (en), Larinus minutus (en), Isocolus centaureae (nl), Urophora affinis. Le fruit a pour parasites Oxycarenus pallens, Urophora quadrifasciata. La feuille a pour parasite Tingis grisea, Jordanita budensis (de), Aceria centaureae, Jordanita globulariae, Puccinia carthami (sv), Puccinia jaceae, Aceria thessalonicae. La racine a pour parasites Pelochrista medullana (en), Sphenoptera jugoslavica (sv), Cyphocleonus achates (en). Le collet a pour parasites Ceratapion gibbirostre (pt), Ceratapion orientale, Cleonis pigra (de), Ceratapion penetrans (pt). La tige a pour parasite Phanacis centaureae (sv).
 </t>
         </is>
       </c>
@@ -635,7 +655,9 @@
           <t>Plante invasive en Amérique du Nord</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>La centaurée diffuse est considérée comme une espèce envahissante dans certaines parties de l'Amérique du Nord, s'étant établie dans de nombreuses régions du continent. C. diffusa fut identifié pour la première fois en Amérique du Nord en 1907 dans un champ de luzerne dans l'État de Washington. Les graines furent vraisemblablement transportées dans une cargaison de graines de luzerne impures provenant de quelque part dans l'aire de répartition naturelle de l'espèce. Maintenant présente dans au moins 19 états des États-Unis, elle s'est naturalisée dans tous les États contigus à l'ouest des montagnes Rocheuses ainsi que dans le Connecticut, le Massachusetts et le New Jersey. Des parties de l'ouest du Canada sont également colonisées par cette plante.
 Les zones dans lesquelles la centaurée diffuse est établie sont généralement des parcours de plaine ou des bancs forestiers. Les terres récemment perturbées par des processus humains ou naturels favorisent l'établissement de la centaurée diffuse. Elle pousse dans les milieux semi-arides et arides et semble privilégier les sols légers, secs et poreux. Les zones avec de grandes quantités d'ombre ou des niveaux d'eau élevés découragent la croissance diffuse de la centaurée.
@@ -647,7 +669,7 @@
 Le vent est le principal moyen de propagation des graines de centaurée diffuse.
 En 1998, la centaurée diffuse s'était naturalisée sur plus de 26 640 km2 dans l'ouest des États-Unis et augmentait son aire de répartition à un taux de 18% par an. La centaurée diffuse peut s'établir dans les milieux herbeux, maquis et riverains. Elle a peu de valeur comme aliment pour le bétail, car ses chardons peuvent endommager la bouche et le tube digestif des animaux qui tentent de s'en nourrir.
 Un contrôle efficace de la centaurée diffuse nécessite une fusion d'une gestion des terres bien exécutée, d'un contrôle biologique, d'un contrôle physique, d'un contrôle chimique et du rétablissement des espèces indigènes. Toute méthode de contrôle doit garantir que la racine est enlevée ou que la plante repoussera. De plus, la croissance de plantes indigènes dans les zones où la centaurée diffuse est éliminée doit être encouragée pour empêcher son rétablissement.
-Le contrôle biologique implique l'introduction d'organismes, généralement des concurrents naturels des espèces envahissantes, dans l'environnement envahi afin de contrôler les espèces envahissantes. Depuis 1970, 12 insectes furent lâchés pour lutter contre la centaurée diffuse[5]. Parmi ces 12, 10 se sont établis et 4 sont largement établis (Urophora affinis et Urophora quadrifasciata, le coléoptère foreur des racines Sphenoptera jugoslavica et le charançon Larinus minutus). Des recherches basées sur des modèles de simulation ont montré que pour que les agents de lutte biologique soient efficaces, ils doivent tuer leur hôte, sinon les plantes peuvent compenser en ayant une survie accrue des semis.
+Le contrôle biologique implique l'introduction d'organismes, généralement des concurrents naturels des espèces envahissantes, dans l'environnement envahi afin de contrôler les espèces envahissantes. Depuis 1970, 12 insectes furent lâchés pour lutter contre la centaurée diffuse. Parmi ces 12, 10 se sont établis et 4 sont largement établis (Urophora affinis et Urophora quadrifasciata, le coléoptère foreur des racines Sphenoptera jugoslavica et le charançon Larinus minutus). Des recherches basées sur des modèles de simulation ont montré que pour que les agents de lutte biologique soient efficaces, ils doivent tuer leur hôte, sinon les plantes peuvent compenser en ayant une survie accrue des semis.
 Les imagos de Larinus minutus pondent leurs œufs sur les têtes de graines de la centaurée diffuse et du Rhin. Lorsque les larves émergent des œufs, elles se nourrissent des graines de leur plante hôte. Comme les femelles peuvent créer de 28 à 130 œufs et que chaque larve peut consommer une tête de graine entière, une population adéquate de Larinus minutus peut dévaster des peuplements entiers de centaurée. Les charançons adultes se nourrissent des tiges, des branches, des feuilles et des bourgeons floraux non développés. Il est originaire de Grèce et se trouve maintenant dans le Montana, Washington, Idaho et Oregon.
 Cyphocleonus achates pond environ 50 à 70 œufs sur la centaurée diffuse ou du Rhin. Les larves produites s'enfouissent dans la racine où elles se métamorphosent en forme adulte. À ce stade, elle creuse un tunnel à travers la racine jusqu'à la surface où elle se nourrit des feuilles des plantes de centaurée. Il est originaire d'Autriche, de Grèce, de Hongrie et de Roumanie et fut introduit dans l'Idaho, le Montana, Washington et l'Oregon.
 Le contrôle physique de la centaurée diffuse consiste principalement à couper, creuser ou brûler pour enlever les plantes.
